--- a/BIT Kla-RESULT.xlsx
+++ b/BIT Kla-RESULT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">BIT</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">KS18B05/162</t>
   </si>
   <si>
-    <t xml:space="preserve">Ks18b05204</t>
+    <t xml:space="preserve">KS18b05/204</t>
   </si>
   <si>
     <t xml:space="preserve">KJ19B05/316</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">ES17B05/510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS18B05/508</t>
   </si>
 </sst>
 </file>
@@ -138,11 +141,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,89 +165,13 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,74 +180,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -330,7 +201,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,123 +225,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -482,7 +289,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -498,7 +305,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -525,10 +332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -876,10 +683,12 @@
       <c r="D17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="n">
+        <v>28</v>
+      </c>
       <c r="F17" s="3" t="n">
         <f aca="false">(C17/32*10)+(D17/40*15)+(E17/50*25)</f>
-        <v>16.5625</v>
+        <v>30.5625</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,13 +806,15 @@
       <c r="C23" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5" t="n">
+        <v>29</v>
+      </c>
       <c r="E23" s="2" t="n">
         <v>29</v>
       </c>
       <c r="F23" s="3" t="n">
         <f aca="false">(C23/32*10)+(D23/40*15)+(E23/50*25)</f>
-        <v>23.25</v>
+        <v>34.125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +971,9 @@
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="D31" s="2" t="n">
         <v>28</v>
       </c>
@@ -1169,7 +982,7 @@
       </c>
       <c r="F31" s="3" t="n">
         <f aca="false">(C31/32*10)+(D31/40*15)+(E31/50*25)</f>
-        <v>28</v>
+        <v>37.375</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,7 +1008,7 @@
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="4"/>
@@ -1206,6 +1019,25 @@
       <c r="F33" s="3" t="n">
         <f aca="false">(C33/32*10)+(D33/40*15)+(E33/50*25)</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <f aca="false">(C34/32*10)+(D34/40*15)+(E34/50*25)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
